--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T14:30:08+00:00</t>
+    <t>2025-11-18T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -730,7 +730,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-perso)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
 </t>
   </si>
   <si>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="558">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -610,6 +610,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>https://identifiant-medicosocial-prestation.esante.gouv.fr</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -730,7 +733,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
 </t>
   </si>
   <si>
@@ -3884,7 +3887,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3921,10 +3924,10 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3960,7 +3963,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3981,21 +3984,21 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4003,7 +4006,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -4021,13 +4024,13 @@
         <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4041,7 +4044,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4077,7 +4080,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4098,21 +4101,21 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4135,13 +4138,13 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4192,7 +4195,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4213,21 +4216,21 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4250,16 +4253,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4309,7 +4312,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4330,21 +4333,21 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4367,17 +4370,17 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4426,7 +4429,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4444,10 +4447,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4458,10 +4461,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4487,14 +4490,14 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4543,7 +4546,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4561,10 +4564,10 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4575,10 +4578,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4601,13 +4604,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4658,7 +4661,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4673,13 +4676,13 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4690,10 +4693,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4719,14 +4722,14 @@
         <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4775,7 +4778,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4793,10 +4796,10 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4807,10 +4810,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4833,19 +4836,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4894,7 +4897,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4909,13 +4912,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4926,10 +4929,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4955,14 +4958,14 @@
         <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4990,10 +4993,10 @@
         <v>171</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5011,7 +5014,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -5026,16 +5029,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5043,10 +5046,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5072,13 +5075,13 @@
         <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5104,10 +5107,10 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -5128,7 +5131,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5149,7 +5152,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5160,10 +5163,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5189,14 +5192,14 @@
         <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5221,10 +5224,10 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -5245,7 +5248,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5266,7 +5269,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5277,10 +5280,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5306,13 +5309,13 @@
         <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5341,10 +5344,10 @@
         <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5362,7 +5365,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5380,13 +5383,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5394,10 +5397,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5423,20 +5426,20 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>78</v>
@@ -5460,10 +5463,10 @@
         <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5481,7 +5484,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5499,13 +5502,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5513,10 +5516,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5542,13 +5545,13 @@
         <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5574,13 +5577,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5598,7 +5601,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5616,13 +5619,13 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5630,10 +5633,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5659,10 +5662,10 @@
         <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5713,7 +5716,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5728,13 +5731,13 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5745,10 +5748,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5771,19 +5774,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5832,7 +5835,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5853,10 +5856,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5864,14 +5867,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5890,17 +5893,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5949,7 +5952,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5967,13 +5970,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5981,10 +5984,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6007,17 +6010,17 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6066,7 +6069,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6084,13 +6087,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6098,10 +6101,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6124,13 +6127,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6181,7 +6184,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6199,13 +6202,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6213,10 +6216,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6328,10 +6331,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6445,10 +6448,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6471,16 +6474,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6530,7 +6533,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6539,33 +6542,33 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6588,23 +6591,23 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>78</v>
@@ -6649,7 +6652,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6658,37 +6661,37 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6707,17 +6710,17 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6766,7 +6769,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6775,7 +6778,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6784,13 +6787,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6798,14 +6801,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6824,17 +6827,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6883,7 +6886,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6892,7 +6895,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6904,7 +6907,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6915,10 +6918,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6941,17 +6944,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7000,7 +7003,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7018,13 +7021,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7032,10 +7035,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7061,14 +7064,14 @@
         <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7096,10 +7099,10 @@
         <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7117,7 +7120,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7135,13 +7138,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7149,14 +7152,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7175,19 +7178,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7236,7 +7239,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7254,13 +7257,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7268,10 +7271,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7294,17 +7297,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7353,7 +7356,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7371,13 +7374,13 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7385,10 +7388,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7414,13 +7417,13 @@
         <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7446,10 +7449,10 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7470,7 +7473,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7488,24 +7491,24 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7528,16 +7531,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7587,7 +7590,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7605,13 +7608,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7619,10 +7622,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7645,13 +7648,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7702,7 +7705,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7720,24 +7723,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7760,13 +7763,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7817,7 +7820,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7835,10 +7838,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7849,14 +7852,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7875,16 +7878,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7934,7 +7937,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7952,10 +7955,10 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7966,10 +7969,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7992,17 +7995,17 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8051,7 +8054,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8072,7 +8075,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8083,10 +8086,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8198,10 +8201,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8315,14 +8318,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8344,10 +8347,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8402,7 +8405,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8434,10 +8437,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8460,17 +8463,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8519,7 +8522,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8540,7 +8543,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8551,10 +8554,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8577,19 +8580,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8638,7 +8641,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8659,7 +8662,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8670,10 +8673,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8696,13 +8699,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8753,7 +8756,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8774,7 +8777,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8785,14 +8788,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8811,17 +8814,17 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8858,7 +8861,7 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
@@ -8868,7 +8871,7 @@
         <v>164</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8889,7 +8892,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8900,10 +8903,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9015,10 +9018,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9132,14 +9135,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9161,10 +9164,10 @@
         <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>138</v>
@@ -9219,7 +9222,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9251,14 +9254,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9280,16 +9283,16 @@
         <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9314,10 +9317,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9338,7 +9341,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>89</v>
@@ -9359,7 +9362,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9370,10 +9373,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9396,13 +9399,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9453,7 +9456,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9474,7 +9477,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9485,16 +9488,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9513,17 +9516,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9572,7 +9575,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9587,13 +9590,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9604,10 +9607,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9719,10 +9722,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9836,14 +9839,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9865,10 +9868,10 @@
         <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>138</v>
@@ -9923,7 +9926,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9955,14 +9958,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9984,16 +9987,16 @@
         <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10003,7 +10006,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -10018,10 +10021,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -10042,7 +10045,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>89</v>
@@ -10063,7 +10066,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10074,10 +10077,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10103,10 +10106,10 @@
         <v>155</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10157,7 +10160,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>89</v>
@@ -10178,7 +10181,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10189,16 +10192,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10217,17 +10220,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10276,7 +10279,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10291,13 +10294,13 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10308,10 +10311,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10423,10 +10426,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10540,14 +10543,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10569,10 +10572,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>138</v>
@@ -10627,7 +10630,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10659,14 +10662,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10688,16 +10691,16 @@
         <v>177</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10707,7 +10710,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10722,10 +10725,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10746,7 +10749,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>89</v>
@@ -10767,7 +10770,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10778,10 +10781,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10807,10 +10810,10 @@
         <v>177</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10841,7 +10844,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10859,7 +10862,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>89</v>
@@ -10880,7 +10883,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10891,16 +10894,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10919,17 +10922,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10978,7 +10981,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10993,13 +10996,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11010,10 +11013,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11125,10 +11128,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11242,14 +11245,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11271,10 +11274,10 @@
         <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>138</v>
@@ -11329,7 +11332,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11361,14 +11364,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11390,16 +11393,16 @@
         <v>177</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11424,10 +11427,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11448,7 +11451,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11469,7 +11472,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11480,10 +11483,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11506,13 +11509,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11563,7 +11566,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>89</v>
@@ -11584,7 +11587,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11595,16 +11598,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11623,17 +11626,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11682,7 +11685,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11697,13 +11700,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11714,10 +11717,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11829,10 +11832,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11946,14 +11949,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11975,10 +11978,10 @@
         <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>138</v>
@@ -12033,7 +12036,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12065,14 +12068,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12094,16 +12097,16 @@
         <v>177</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12113,7 +12116,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12128,10 +12131,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12152,7 +12155,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>89</v>
@@ -12173,7 +12176,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12184,10 +12187,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12210,13 +12213,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12267,7 +12270,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>89</v>
@@ -12288,7 +12291,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12299,16 +12302,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12327,17 +12330,17 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12386,7 +12389,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12401,13 +12404,13 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12418,10 +12421,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12533,10 +12536,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12650,14 +12653,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12679,10 +12682,10 @@
         <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>138</v>
@@ -12737,7 +12740,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12769,14 +12772,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12798,16 +12801,16 @@
         <v>177</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12817,7 +12820,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12832,10 +12835,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -12856,7 +12859,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>89</v>
@@ -12877,7 +12880,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12888,10 +12891,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12914,13 +12917,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12971,7 +12974,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>89</v>
@@ -12992,7 +12995,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13003,10 +13006,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13029,17 +13032,17 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13088,7 +13091,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13109,7 +13112,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13120,10 +13123,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13235,10 +13238,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13352,14 +13355,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13381,10 +13384,10 @@
         <v>135</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>138</v>
@@ -13439,7 +13442,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13471,14 +13474,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13500,14 +13503,14 @@
         <v>177</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13532,10 +13535,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13556,7 +13559,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>89</v>
@@ -13577,7 +13580,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13588,10 +13591,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13614,17 +13617,17 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13673,7 +13676,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>89</v>
@@ -13694,7 +13697,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="591">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -326,13 +326,193 @@
 </t>
   </si>
   <si>
-    <t>Task.implicitRules</t>
+    <t>Task.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Task.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Task.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Task.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>statutPrestation.dateStatut</t>
+  </si>
+  <si>
+    <t>Task.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Task.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Task.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Task.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Task.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -428,28 +608,10 @@
     <t>Task.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Task.modifierExtension</t>
@@ -481,7 +643,7 @@
     <t>The business identifier for this task.</t>
   </si>
   <si>
-    <t>identifiantPrestation</t>
+    <t>idPrestation</t>
   </si>
   <si>
     <t>Request.identifier, Event.identifier</t>
@@ -496,39 +658,7 @@
     <t>Task.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Task.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Task.identifier.use</t>
@@ -580,9 +710,6 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -813,7 +940,7 @@
     <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
   </si>
   <si>
-    <t>statutPrestation</t>
+    <t>statutPrestation.statut</t>
   </si>
   <si>
     <t>Request.status, Event.status</t>
@@ -835,9 +962,6 @@
   </si>
   <si>
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
@@ -1620,6 +1744,9 @@
     <t>evaluation</t>
   </si>
   <si>
+    <t>Évaluation</t>
+  </si>
+  <si>
     <t>evaluationPrestation</t>
   </si>
   <si>
@@ -1635,7 +1762,19 @@
     <t>Task.input:evaluation.type</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-prestation-codesystem"/&gt;
+    &lt;code value="evaluation"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Task.input:evaluation.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-questionnaire-response)
+</t>
   </si>
   <si>
     <t>Task.input:pieceJointe</t>
@@ -1675,41 +1814,6 @@
   <si>
     <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
 </t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree</t>
-  </si>
-  <si>
-    <t>evaluationNonStructuree</t>
-  </si>
-  <si>
-    <t>EValuation non structurée</t>
-  </si>
-  <si>
-    <t>evaluationNonStructureePrestation</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.id</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.extension</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/input-tddui-task-prestation-codesystem"/&gt;
-    &lt;code value="evaluationNonStructuree"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Task.input:evaluationNonStructuree.value[x]</t>
   </si>
   <si>
     <t>Task.output</t>
@@ -2062,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO99"/>
+  <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2071,9 +2175,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2607,10 +2711,10 @@
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>103</v>
@@ -2621,9 +2725,7 @@
       <c r="M5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>78</v>
@@ -2672,28 +2774,28 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>78</v>
@@ -2711,14 +2813,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2730,16 +2832,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2765,43 +2867,43 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2810,7 +2912,7 @@
         <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>78</v>
@@ -2821,14 +2923,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2844,10 +2946,10 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>120</v>
@@ -2927,7 +3029,7 @@
         <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>78</v>
@@ -2938,21 +3040,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2961,19 +3063,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3023,28 +3125,28 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -3055,21 +3157,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -3078,19 +3180,19 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3140,19 +3242,19 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3161,7 +3263,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -3172,14 +3274,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3192,26 +3294,24 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J10" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3259,7 +3359,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3271,7 +3371,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3280,7 +3380,7 @@
         <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -3291,10 +3391,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3302,10 +3402,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3314,18 +3414,20 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3350,13 +3452,13 @@
         <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>78</v>
@@ -3374,7 +3476,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3389,16 +3491,16 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3406,10 +3508,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3420,7 +3522,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3429,18 +3531,20 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -3465,13 +3569,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3489,19 +3593,19 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3510,7 +3614,7 @@
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3528,35 +3632,35 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3594,31 +3698,31 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3627,7 +3731,7 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3638,10 +3742,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3658,13 +3762,13 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
@@ -3675,9 +3779,7 @@
       <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3701,31 +3803,31 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3746,25 +3848,25 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3780,23 +3882,21 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3820,13 +3920,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3844,7 +3944,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3865,32 +3965,32 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3899,23 +3999,21 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3924,10 +4022,10 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3963,19 +4061,19 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -3984,32 +4082,32 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -4018,19 +4116,19 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4044,7 +4142,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4080,19 +4178,19 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -4101,53 +4199,57 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4195,19 +4297,19 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4216,21 +4318,21 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4238,7 +4340,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -4250,20 +4352,18 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4312,13 +4412,13 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
@@ -4327,27 +4427,27 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4367,21 +4467,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4429,7 +4527,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4441,16 +4539,16 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4461,21 +4559,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4484,21 +4582,21 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4534,40 +4632,40 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4578,10 +4676,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4589,7 +4687,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4598,22 +4696,26 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4637,13 +4739,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4661,13 +4763,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4676,27 +4778,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4719,17 +4821,19 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4754,13 +4858,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4778,7 +4882,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4796,24 +4900,24 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4821,7 +4925,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4836,19 +4940,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4858,10 +4962,10 @@
         <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>78</v>
@@ -4897,13 +5001,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4912,27 +5016,27 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4949,24 +5053,24 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4978,7 +5082,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4990,13 +5094,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5014,10 +5118,10 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
@@ -5029,27 +5133,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5072,17 +5176,15 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5107,10 +5209,10 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -5131,7 +5233,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5152,21 +5254,21 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5189,18 +5291,18 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5224,10 +5326,10 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -5248,7 +5350,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5269,21 +5371,21 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5291,7 +5393,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5306,18 +5408,18 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5341,13 +5443,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5365,10 +5467,10 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5383,13 +5485,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5397,10 +5499,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5420,27 +5522,25 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5460,13 +5560,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5484,7 +5584,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5502,13 +5602,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5516,10 +5616,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5527,7 +5627,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -5542,17 +5642,15 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5577,13 +5675,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5601,13 +5699,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -5616,16 +5714,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5633,10 +5731,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5659,16 +5757,18 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5716,7 +5816,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5731,13 +5831,13 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5748,10 +5848,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5774,19 +5874,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5835,13 +5935,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5850,16 +5950,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5867,18 +5967,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>89</v>
@@ -5887,23 +5987,23 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5928,13 +6028,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5952,10 +6052,10 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>89</v>
@@ -5967,16 +6067,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5984,10 +6084,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6010,18 +6110,18 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -6045,10 +6145,10 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -6069,7 +6169,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6087,13 +6187,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6101,10 +6201,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6127,16 +6227,18 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6160,10 +6262,10 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>78</v>
@@ -6184,7 +6286,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6202,13 +6304,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6216,10 +6318,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6227,7 +6329,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6239,18 +6341,20 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6275,13 +6379,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6299,10 +6403,10 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>89</v>
@@ -6311,19 +6415,19 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>159</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6331,21 +6435,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6357,22 +6461,24 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="R37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6392,55 +6498,55 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6448,10 +6554,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6474,16 +6580,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>219</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6509,13 +6615,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6533,7 +6639,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6542,33 +6648,33 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6591,24 +6697,20 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q39" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6652,7 +6754,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6661,37 +6763,37 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6707,20 +6809,22 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6769,7 +6873,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6778,7 +6882,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6787,13 +6891,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6801,14 +6905,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6827,17 +6931,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6886,7 +6990,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6895,7 +6999,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6904,13 +7008,13 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6918,10 +7022,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6944,17 +7048,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7003,7 +7107,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7021,13 +7125,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7035,10 +7139,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7049,7 +7153,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7058,21 +7162,19 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7096,13 +7198,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7120,13 +7222,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -7138,13 +7240,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7152,14 +7254,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7175,23 +7277,19 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>392</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>393</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7239,7 +7337,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7251,19 +7349,19 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>107</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7271,21 +7369,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7294,21 +7392,21 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7344,43 +7442,43 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7388,10 +7486,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7411,19 +7509,19 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7449,10 +7547,10 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7473,7 +7571,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7482,33 +7580,33 @@
         <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>415</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7528,25 +7626,27 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>309</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="R47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7590,7 +7690,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7599,44 +7699,44 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7648,16 +7748,18 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7705,16 +7807,16 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>101</v>
@@ -7723,35 +7825,35 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7760,19 +7862,21 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7820,16 +7924,16 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
@@ -7838,10 +7942,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7852,21 +7956,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7875,21 +7979,21 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7937,13 +8041,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7955,13 +8059,13 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7969,10 +8073,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7983,7 +8087,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7995,17 +8099,17 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8030,13 +8134,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8054,13 +8158,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -8072,13 +8176,13 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8086,14 +8190,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8109,19 +8213,23 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>155</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>156</v>
+        <v>433</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8169,7 +8277,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8181,19 +8289,19 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>159</v>
+        <v>438</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8201,21 +8309,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8224,21 +8332,21 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>440</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>136</v>
+        <v>441</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8286,31 +8394,31 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>165</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8318,46 +8426,44 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8381,10 +8487,10 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
@@ -8405,42 +8511,42 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO54" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8463,18 +8569,18 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>459</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8522,7 +8628,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8540,13 +8646,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>454</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8568,7 +8674,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8580,20 +8686,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>206</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N56" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8647,7 +8749,7 @@
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8659,7 +8761,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>466</v>
@@ -8668,15 +8770,15 @@
         <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8699,13 +8801,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8756,7 +8858,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8774,10 +8876,10 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8788,18 +8890,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8814,18 +8916,18 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8861,17 +8963,19 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8889,10 +8993,10 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8903,10 +9007,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8929,16 +9033,18 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>155</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>156</v>
+        <v>484</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>157</v>
+        <v>485</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8986,7 +9092,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>158</v>
+        <v>482</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8998,7 +9104,7 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -9007,7 +9113,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>159</v>
+        <v>487</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9018,21 +9124,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -9044,17 +9150,15 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9103,19 +9207,19 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9124,7 +9228,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9135,14 +9239,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>451</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9155,26 +9259,24 @@
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>452</v>
+        <v>111</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>453</v>
+        <v>112</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9222,7 +9324,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>454</v>
+        <v>117</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9234,7 +9336,7 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9243,7 +9345,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9254,45 +9356,45 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>486</v>
+        <v>113</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>487</v>
+        <v>196</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9317,10 +9419,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9341,19 +9443,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9362,7 +9464,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>478</v>
+        <v>189</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9373,10 +9475,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9384,7 +9486,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9399,16 +9501,18 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9456,10 +9560,10 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>89</v>
@@ -9477,7 +9581,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9488,20 +9592,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9516,17 +9618,19 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>247</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9575,13 +9679,13 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
@@ -9590,13 +9694,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9607,10 +9711,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9621,7 +9725,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9633,13 +9737,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>155</v>
+        <v>508</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>157</v>
+        <v>510</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9690,19 +9794,19 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>158</v>
+        <v>507</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9711,7 +9815,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>159</v>
+        <v>511</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9722,18 +9826,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9748,18 +9852,18 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>136</v>
+        <v>514</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9795,19 +9899,17 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>165</v>
+        <v>512</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9819,7 +9921,7 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9828,7 +9930,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9839,46 +9941,42 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9926,19 +10024,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9947,7 +10045,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9958,21 +10056,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>483</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9984,20 +10082,18 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>111</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -10006,7 +10102,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -10021,10 +10117,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -10045,19 +10141,19 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10066,7 +10162,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10077,42 +10173,46 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10160,19 +10260,19 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10181,7 +10281,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>478</v>
+        <v>189</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10192,23 +10292,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10220,17 +10318,19 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10255,10 +10355,10 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>78</v>
@@ -10279,13 +10379,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10294,13 +10394,13 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>504</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10311,10 +10411,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10322,7 +10422,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -10337,13 +10437,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>155</v>
+        <v>530</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10394,10 +10494,10 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>158</v>
+        <v>529</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>89</v>
@@ -10406,7 +10506,7 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10415,7 +10515,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10426,21 +10526,23 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="D72" t="s" s="2">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10452,18 +10554,18 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>136</v>
+        <v>535</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10511,7 +10613,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>165</v>
+        <v>512</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10523,16 +10625,16 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10543,46 +10645,42 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10630,19 +10728,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10651,7 +10749,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10662,21 +10760,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>483</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10688,20 +10786,18 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>111</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10710,7 +10806,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10725,10 +10821,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10749,19 +10845,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10770,7 +10866,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10781,42 +10877,46 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10840,11 +10940,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>512</v>
+        <v>78</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10862,19 +10964,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10883,7 +10985,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>478</v>
+        <v>189</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10894,20 +10996,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>89</v>
@@ -10922,17 +11022,19 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10942,7 +11044,7 @@
         <v>78</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>78</v>
+        <v>541</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>78</v>
@@ -10957,10 +11059,10 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>78</v>
@@ -10981,13 +11083,13 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
@@ -10996,13 +11098,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11013,10 +11115,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11024,7 +11126,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>89</v>
@@ -11039,13 +11141,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11096,10 +11198,10 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>158</v>
+        <v>529</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>89</v>
@@ -11108,7 +11210,7 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11117,7 +11219,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11128,14 +11230,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="D78" t="s" s="2">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11154,18 +11258,18 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>136</v>
+        <v>545</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11213,7 +11317,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>165</v>
+        <v>512</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11225,16 +11329,16 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11245,46 +11349,42 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11332,19 +11432,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11353,7 +11453,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11364,21 +11464,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>483</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11390,20 +11490,18 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>484</v>
+        <v>111</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11427,10 +11525,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11451,19 +11549,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11472,7 +11570,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11483,42 +11581,46 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>490</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11566,19 +11668,19 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11587,7 +11689,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>478</v>
+        <v>189</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11598,23 +11700,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C82" t="s" s="2">
         <v>522</v>
       </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11626,17 +11726,19 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O82" t="s" s="2">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11646,7 +11748,7 @@
         <v>78</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>78</v>
+        <v>550</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>78</v>
@@ -11661,10 +11763,10 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>78</v>
@@ -11685,13 +11787,13 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11700,13 +11802,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>524</v>
+        <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11717,10 +11819,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11728,7 +11830,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>89</v>
@@ -11743,13 +11845,13 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11776,13 +11878,11 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11800,10 +11900,10 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>158</v>
+        <v>529</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>89</v>
@@ -11812,7 +11912,7 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11821,7 +11921,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11832,21 +11932,23 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="D84" t="s" s="2">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11858,18 +11960,18 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>136</v>
+        <v>555</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11917,7 +12019,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>165</v>
+        <v>512</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11929,16 +12031,16 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>78</v>
+        <v>556</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11949,46 +12051,42 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12036,19 +12134,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12057,7 +12155,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12068,21 +12166,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>483</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12094,20 +12192,18 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>484</v>
+        <v>111</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12116,7 +12212,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>529</v>
+        <v>78</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12131,10 +12227,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12155,19 +12251,19 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12176,7 +12272,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12187,42 +12283,46 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>531</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12270,19 +12370,19 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12291,7 +12391,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>478</v>
+        <v>189</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12302,20 +12402,18 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>89</v>
@@ -12330,17 +12428,19 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O88" t="s" s="2">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12350,7 +12450,7 @@
         <v>78</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>78</v>
+        <v>561</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>78</v>
@@ -12365,10 +12465,10 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>78</v>
@@ -12389,13 +12489,13 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
@@ -12404,13 +12504,13 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>535</v>
+        <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12421,10 +12521,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12432,7 +12532,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>89</v>
@@ -12447,13 +12547,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>155</v>
+        <v>563</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12504,10 +12604,10 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>158</v>
+        <v>529</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>89</v>
@@ -12516,7 +12616,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12525,7 +12625,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12536,14 +12636,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="D90" t="s" s="2">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12562,18 +12664,18 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>136</v>
+        <v>566</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12621,7 +12723,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>165</v>
+        <v>512</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12633,16 +12735,16 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>78</v>
+        <v>567</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12653,46 +12755,42 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12740,19 +12838,19 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12761,7 +12859,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12772,21 +12870,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>483</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -12798,20 +12896,18 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>484</v>
+        <v>111</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12820,7 +12916,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>540</v>
+        <v>78</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12835,10 +12931,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -12859,19 +12955,19 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -12880,7 +12976,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12891,42 +12987,46 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>531</v>
+        <v>110</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
@@ -12974,19 +13074,19 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -12995,7 +13095,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>478</v>
+        <v>189</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13006,21 +13106,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>78</v>
+        <v>523</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -13032,17 +13132,19 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13052,7 +13154,7 @@
         <v>78</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>78</v>
+        <v>572</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>78</v>
@@ -13067,10 +13169,10 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>78</v>
@@ -13091,13 +13193,13 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
@@ -13112,7 +13214,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13123,10 +13225,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13134,7 +13236,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>89</v>
@@ -13149,13 +13251,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>155</v>
+        <v>574</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13206,10 +13308,10 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>158</v>
+        <v>529</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>89</v>
@@ -13218,7 +13320,7 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13227,7 +13329,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13238,14 +13340,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13264,18 +13366,18 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>136</v>
+        <v>576</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13323,7 +13425,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>165</v>
+        <v>575</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13335,7 +13437,7 @@
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13344,7 +13446,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13355,46 +13457,42 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13442,19 +13540,19 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13463,7 +13561,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13474,21 +13572,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>483</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13500,18 +13598,18 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>550</v>
+        <v>111</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13535,10 +13633,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>553</v>
+        <v>78</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13559,19 +13657,19 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>549</v>
+        <v>117</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -13580,7 +13678,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>478</v>
+        <v>107</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13591,43 +13689,45 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>490</v>
+        <v>110</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>555</v>
+        <v>492</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O99" t="s" s="2">
-        <v>557</v>
+        <v>196</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13676,33 +13776,267 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO99" t="s" s="2">
+      <c r="AK100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="607">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -950,6 +950,56 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Task.status.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Task.status.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Task.status.extension:auteurStatut</t>
+  </si>
+  <si>
+    <t>auteurStatut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author}
+</t>
+  </si>
+  <si>
+    <t>TDDUI Profession</t>
+  </si>
+  <si>
+    <t>Extension permettant de représenter la profession du professionnel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>statutPrestation.auteur</t>
+  </si>
+  <si>
+    <t>Task.status.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Task.statusReason</t>
@@ -2166,7 +2216,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO101"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6107,10 +6157,10 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>304</v>
@@ -6118,9 +6168,7 @@
       <c r="M34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6145,10 +6193,10 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -6169,7 +6217,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6181,7 +6229,7 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6190,7 +6238,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6201,10 +6249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6215,7 +6263,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6224,21 +6272,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6262,10 +6308,10 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>78</v>
@@ -6274,31 +6320,29 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6307,7 +6351,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6318,18 +6362,20 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6341,20 +6387,18 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6379,13 +6423,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6403,31 +6447,31 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6435,10 +6479,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6461,24 +6505,20 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q37" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6498,13 +6538,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6522,7 +6562,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6534,19 +6574,19 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6554,10 +6594,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6583,13 +6623,13 @@
         <v>219</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6618,10 +6658,10 @@
         <v>156</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6639,7 +6679,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6657,13 +6697,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6671,10 +6711,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6697,16 +6737,18 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6730,10 +6772,10 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6754,7 +6796,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6769,13 +6811,13 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6786,10 +6828,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6797,7 +6839,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6812,20 +6854,18 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6849,13 +6889,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6873,10 +6913,10 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>89</v>
@@ -6891,13 +6931,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6905,14 +6945,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6928,25 +6968,27 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>349</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6966,13 +7008,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6990,7 +7032,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7008,13 +7050,13 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -7022,10 +7064,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7048,18 +7090,18 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>364</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -7083,13 +7125,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -7107,7 +7149,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7125,13 +7167,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7139,10 +7181,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7165,13 +7207,13 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7222,7 +7264,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7237,16 +7279,16 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7254,10 +7296,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7277,19 +7319,23 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7337,7 +7383,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>106</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7349,7 +7395,7 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7358,10 +7404,10 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>370</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7369,21 +7415,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7392,21 +7438,21 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>110</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>111</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7442,43 +7488,43 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>107</v>
+        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7520,10 +7566,10 @@
       <c r="M46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7571,7 +7617,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7580,33 +7626,33 @@
         <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO46" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7629,24 +7675,20 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>247</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q47" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7690,7 +7732,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7699,37 +7741,37 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7748,18 +7790,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>105</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7807,7 +7847,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>106</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7816,22 +7856,22 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7839,21 +7879,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7862,21 +7902,21 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7912,31 +7952,31 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>117</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7945,7 +7985,7 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7956,10 +7996,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7982,18 +8022,18 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8041,7 +8081,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8050,33 +8090,33 @@
         <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8087,7 +8127,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -8096,25 +8136,27 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>219</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="R51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8134,13 +8176,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8158,46 +8200,46 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8213,22 +8255,20 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8277,7 +8317,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8286,7 +8326,7 @@
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>101</v>
@@ -8295,13 +8335,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8309,14 +8349,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8335,17 +8375,17 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8394,7 +8434,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8403,7 +8443,7 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>101</v>
@@ -8412,13 +8452,13 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8426,10 +8466,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8449,21 +8489,21 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>219</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8487,10 +8527,10 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
@@ -8511,7 +8551,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8529,24 +8569,24 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8557,7 +8597,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8569,18 +8609,18 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8604,13 +8644,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8628,13 +8668,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8646,13 +8686,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8660,21 +8700,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8683,19 +8723,23 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8743,13 +8787,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8761,24 +8805,24 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8789,7 +8833,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8798,19 +8842,21 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8858,13 +8904,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8876,13 +8922,13 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8890,21 +8936,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8916,16 +8962,16 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>476</v>
+        <v>219</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8951,10 +8997,10 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>78</v>
@@ -8975,13 +9021,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8993,24 +9039,24 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9033,18 +9079,18 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>483</v>
+        <v>365</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9092,7 +9138,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9110,13 +9156,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9124,10 +9170,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9138,7 +9184,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -9150,13 +9196,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>103</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>105</v>
+        <v>480</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9207,46 +9253,46 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>106</v>
+        <v>477</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>107</v>
+        <v>482</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9265,17 +9311,15 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>110</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>111</v>
+        <v>486</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9324,7 +9368,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>117</v>
+        <v>484</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9336,16 +9380,16 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>107</v>
+        <v>489</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9376,26 +9420,24 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>110</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9443,7 +9485,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9455,16 +9497,16 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>189</v>
+        <v>497</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9475,10 +9517,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9501,17 +9543,17 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9560,7 +9602,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9581,7 +9623,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9592,10 +9634,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9618,20 +9660,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9679,7 +9717,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>501</v>
+        <v>106</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9691,7 +9729,7 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9700,7 +9738,7 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>506</v>
+        <v>107</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9711,14 +9749,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9737,15 +9775,17 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>508</v>
+        <v>110</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>509</v>
+        <v>111</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9794,7 +9834,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>507</v>
+        <v>117</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9806,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9815,7 +9855,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>511</v>
+        <v>107</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9826,18 +9866,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9846,23 +9886,25 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O66" t="s" s="2">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9899,17 +9941,19 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9921,7 +9965,7 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9930,7 +9974,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>518</v>
+        <v>189</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9941,10 +9985,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9967,16 +10011,18 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>104</v>
+        <v>513</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>105</v>
+        <v>514</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -10024,7 +10070,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>106</v>
+        <v>511</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10036,7 +10082,7 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -10045,7 +10091,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10056,21 +10102,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -10082,18 +10128,20 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>111</v>
+        <v>518</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>112</v>
+        <v>519</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -10141,19 +10189,19 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>117</v>
+        <v>517</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10162,7 +10210,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>107</v>
+        <v>522</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10173,14 +10221,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10193,26 +10241,22 @@
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10260,7 +10304,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10272,7 +10316,7 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10281,7 +10325,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>189</v>
+        <v>527</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10292,21 +10336,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10318,19 +10362,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10355,37 +10397,35 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AC70" s="2"/>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10400,7 +10440,7 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10411,10 +10451,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10422,7 +10462,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -10437,13 +10477,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>530</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10494,10 +10534,10 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>89</v>
@@ -10506,7 +10546,7 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10515,7 +10555,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10526,23 +10566,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10554,18 +10592,18 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>535</v>
+        <v>111</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10613,7 +10651,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10625,16 +10663,16 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>536</v>
+        <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10648,39 +10686,43 @@
         <v>537</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10728,19 +10770,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10749,7 +10791,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10763,18 +10805,18 @@
         <v>538</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10786,18 +10828,20 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10821,10 +10865,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10845,19 +10889,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10866,7 +10910,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10877,46 +10921,42 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>110</v>
+        <v>546</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10964,19 +11004,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10985,7 +11025,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10996,14 +11036,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="D76" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11022,19 +11064,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11044,7 +11084,7 @@
         <v>78</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>78</v>
@@ -11059,37 +11099,37 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
@@ -11098,13 +11138,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11115,10 +11155,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11126,7 +11166,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>89</v>
@@ -11144,10 +11184,10 @@
         <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11198,10 +11238,10 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>89</v>
@@ -11210,7 +11250,7 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11219,7 +11259,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11230,16 +11270,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11258,18 +11296,18 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>545</v>
+        <v>111</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11317,7 +11355,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11329,16 +11367,16 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>544</v>
+        <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11349,42 +11387,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11432,19 +11474,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11453,7 +11495,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11464,21 +11506,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11490,18 +11532,20 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11510,7 +11554,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>78</v>
+        <v>557</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11525,10 +11569,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11549,19 +11593,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11570,7 +11614,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11581,46 +11625,42 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11668,19 +11708,19 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11689,7 +11729,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11700,21 +11740,23 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11726,19 +11768,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11748,7 +11788,7 @@
         <v>78</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>78</v>
@@ -11763,37 +11803,37 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11802,13 +11842,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11819,10 +11859,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11830,7 +11870,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>89</v>
@@ -11845,13 +11885,13 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11878,11 +11918,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>552</v>
+        <v>78</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11900,10 +11942,10 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>89</v>
@@ -11912,7 +11954,7 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11921,7 +11963,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11932,23 +11974,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11960,18 +12000,18 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>555</v>
+        <v>111</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -12019,7 +12059,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12031,16 +12071,16 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>556</v>
+        <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12051,42 +12091,46 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12134,19 +12178,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12155,7 +12199,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12166,21 +12210,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12192,18 +12236,20 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12212,7 +12258,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>78</v>
+        <v>566</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12227,10 +12273,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12251,19 +12297,19 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12272,7 +12318,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12283,46 +12329,42 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12346,13 +12388,11 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>78</v>
+        <v>568</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>78</v>
@@ -12370,19 +12410,19 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12391,7 +12431,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12402,18 +12442,20 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>89</v>
@@ -12428,19 +12470,17 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12450,7 +12490,7 @@
         <v>78</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>561</v>
+        <v>78</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>78</v>
@@ -12465,37 +12505,37 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
@@ -12504,13 +12544,13 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>78</v>
+        <v>572</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12521,10 +12561,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12532,7 +12572,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>89</v>
@@ -12547,13 +12587,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>563</v>
+        <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12604,10 +12644,10 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>89</v>
@@ -12616,7 +12656,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12625,7 +12665,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12636,16 +12676,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12664,18 +12702,18 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>566</v>
+        <v>111</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12723,7 +12761,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12735,16 +12773,16 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>567</v>
+        <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12755,42 +12793,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12838,19 +12880,19 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12859,7 +12901,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12870,21 +12912,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -12896,18 +12938,20 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12916,7 +12960,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>78</v>
+        <v>577</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12931,10 +12975,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -12955,19 +12999,19 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -12976,7 +13020,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12987,46 +13031,42 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>110</v>
+        <v>579</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
@@ -13074,19 +13114,19 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -13095,7 +13135,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13106,21 +13146,23 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="D94" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -13132,19 +13174,17 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13154,7 +13194,7 @@
         <v>78</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>572</v>
+        <v>78</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>78</v>
@@ -13169,37 +13209,37 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
@@ -13208,13 +13248,13 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>78</v>
+        <v>583</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13225,10 +13265,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13236,7 +13276,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>89</v>
@@ -13251,13 +13291,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>574</v>
+        <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13308,10 +13348,10 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>89</v>
@@ -13320,7 +13360,7 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13329,7 +13369,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13340,14 +13380,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13366,18 +13406,18 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>576</v>
+        <v>111</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13425,7 +13465,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>575</v>
+        <v>117</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13437,7 +13477,7 @@
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13446,7 +13486,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13457,42 +13497,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>579</v>
+        <v>537</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13540,19 +13584,19 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13561,7 +13605,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13572,21 +13616,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>580</v>
+        <v>538</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13598,18 +13642,20 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13618,7 +13664,7 @@
         <v>78</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>78</v>
+        <v>588</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>78</v>
@@ -13633,10 +13679,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13657,19 +13703,19 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -13678,7 +13724,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13689,46 +13735,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>110</v>
+        <v>590</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13776,19 +13818,19 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -13797,7 +13839,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13808,21 +13850,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13834,17 +13876,17 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13869,10 +13911,10 @@
         <v>78</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>586</v>
+        <v>78</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>78</v>
@@ -13893,13 +13935,13 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
@@ -13914,7 +13956,7 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -13925,10 +13967,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13936,7 +13978,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>89</v>
@@ -13951,18 +13993,16 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>530</v>
+        <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>588</v>
+        <v>104</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>589</v>
+        <v>105</v>
       </c>
       <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>590</v>
-      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
@@ -14010,10 +14050,10 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>587</v>
+        <v>106</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>89</v>
@@ -14022,21 +14062,491 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO101" t="s" s="2">
+      <c r="AK104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO105" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -637,7 +637,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiant de l'action</t>
+    <t>Identifiant de la prestation</t>
   </si>
   <si>
     <t>The business identifier for this task.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -928,7 +928,7 @@
     <t>Task.status</t>
   </si>
   <si>
-    <t>draft | requested | received | accepted | +</t>
+    <t>Correspondance des statuts métier avec les codes FHIR : ENPREPARATION → draft, ACTIF → in-progress, TERMINE → completed, ANNULE → cancelled.</t>
   </si>
   <si>
     <t>The current status of the task.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -980,7 +980,7 @@
 </t>
   </si>
   <si>
-    <t>TDDUI Profession</t>
+    <t>TDDUI Auteur statut</t>
   </si>
   <si>
     <t>Extension permettant de représenter la profession du professionnel.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
